--- a/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="AK33" sqref="AK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ13" s="1">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG38" s="1">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X40" s="1">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR40" s="1">
         <v>0</v>
